--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Efnb2-Pecam1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Efnb2-Pecam1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>52.61615766666667</v>
+        <v>45.76217133333333</v>
       </c>
       <c r="H2">
-        <v>157.848473</v>
+        <v>137.286514</v>
       </c>
       <c r="I2">
-        <v>0.7671520491359202</v>
+        <v>0.6763939203605134</v>
       </c>
       <c r="J2">
-        <v>0.7671520491359202</v>
+        <v>0.6763939203605135</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>343.9479473333333</v>
+        <v>361.2779286666667</v>
       </c>
       <c r="N2">
-        <v>1031.843842</v>
+        <v>1083.833786</v>
       </c>
       <c r="O2">
-        <v>0.9666099193889262</v>
+        <v>0.9679392703861037</v>
       </c>
       <c r="P2">
-        <v>0.966609919388926</v>
+        <v>0.9679392703861038</v>
       </c>
       <c r="Q2">
-        <v>18097.21942601703</v>
+        <v>16532.86247059578</v>
       </c>
       <c r="R2">
-        <v>162874.9748341533</v>
+        <v>148795.762235362</v>
       </c>
       <c r="S2">
-        <v>0.7415367803743214</v>
+        <v>0.6547082377673517</v>
       </c>
       <c r="T2">
-        <v>0.7415367803743212</v>
+        <v>0.6547082377673519</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>52.61615766666667</v>
+        <v>45.76217133333333</v>
       </c>
       <c r="H3">
-        <v>157.848473</v>
+        <v>137.286514</v>
       </c>
       <c r="I3">
-        <v>0.7671520491359202</v>
+        <v>0.6763939203605134</v>
       </c>
       <c r="J3">
-        <v>0.7671520491359202</v>
+        <v>0.6763939203605135</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>17.910552</v>
       </c>
       <c r="O3">
-        <v>0.01677823379880302</v>
+        <v>0.015995373883918</v>
       </c>
       <c r="P3">
-        <v>0.01677823379880302</v>
+        <v>0.015995373883918</v>
       </c>
       <c r="Q3">
-        <v>314.1281426430107</v>
+        <v>273.2085830995254</v>
       </c>
       <c r="R3">
-        <v>2827.153283787096</v>
+        <v>2458.877247895728</v>
       </c>
       <c r="S3">
-        <v>0.01287145643963329</v>
+        <v>0.01081917364897547</v>
       </c>
       <c r="T3">
-        <v>0.01287145643963329</v>
+        <v>0.01081917364897547</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>52.61615766666667</v>
+        <v>45.76217133333333</v>
       </c>
       <c r="H4">
-        <v>157.848473</v>
+        <v>137.286514</v>
       </c>
       <c r="I4">
-        <v>0.7671520491359202</v>
+        <v>0.6763939203605134</v>
       </c>
       <c r="J4">
-        <v>0.7671520491359202</v>
+        <v>0.6763939203605135</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.239611333333334</v>
+        <v>3.890485666666667</v>
       </c>
       <c r="N4">
-        <v>9.718834000000001</v>
+        <v>11.671457</v>
       </c>
       <c r="O4">
-        <v>0.009104402204005551</v>
+        <v>0.01042342628440887</v>
       </c>
       <c r="P4">
-        <v>0.00910440220400555</v>
+        <v>0.01042342628440887</v>
       </c>
       <c r="Q4">
-        <v>170.455900693387</v>
+        <v>178.0370716478776</v>
       </c>
       <c r="R4">
-        <v>1534.103106240482</v>
+        <v>1602.333644830898</v>
       </c>
       <c r="S4">
-        <v>0.006984460806960447</v>
+        <v>0.007050342168100137</v>
       </c>
       <c r="T4">
-        <v>0.006984460806960445</v>
+        <v>0.007050342168100139</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>52.61615766666667</v>
+        <v>45.76217133333333</v>
       </c>
       <c r="H5">
-        <v>157.848473</v>
+        <v>137.286514</v>
       </c>
       <c r="I5">
-        <v>0.7671520491359202</v>
+        <v>0.6763939203605134</v>
       </c>
       <c r="J5">
-        <v>0.7671520491359202</v>
+        <v>0.6763939203605135</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.671367333333334</v>
+        <v>2.105818666666667</v>
       </c>
       <c r="N5">
-        <v>8.014102000000001</v>
+        <v>6.317456</v>
       </c>
       <c r="O5">
-        <v>0.007507444608265281</v>
+        <v>0.005641929445569353</v>
       </c>
       <c r="P5">
-        <v>0.00750744460826528</v>
+        <v>0.005641929445569354</v>
       </c>
       <c r="Q5">
-        <v>140.5570847962496</v>
+        <v>96.36683462093156</v>
       </c>
       <c r="R5">
-        <v>1265.013763166246</v>
+        <v>867.3015115883841</v>
       </c>
       <c r="S5">
-        <v>0.005759351515005126</v>
+        <v>0.003816166776086072</v>
       </c>
       <c r="T5">
-        <v>0.005759351515005126</v>
+        <v>0.003816166776086073</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>28.187806</v>
       </c>
       <c r="I6">
-        <v>0.1369942497546098</v>
+        <v>0.1388778842960613</v>
       </c>
       <c r="J6">
-        <v>0.1369942497546098</v>
+        <v>0.1388778842960613</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>343.9479473333333</v>
+        <v>361.2779286666667</v>
       </c>
       <c r="N6">
-        <v>1031.843842</v>
+        <v>1083.833786</v>
       </c>
       <c r="O6">
-        <v>0.9666099193889262</v>
+        <v>0.9679392703861037</v>
       </c>
       <c r="P6">
-        <v>0.966609919388926</v>
+        <v>0.9679392703861038</v>
       </c>
       <c r="Q6">
-        <v>3231.712671176739</v>
+        <v>3394.544055112613</v>
       </c>
       <c r="R6">
-        <v>29085.41404059065</v>
+        <v>30550.89649601352</v>
       </c>
       <c r="S6">
-        <v>0.1324200007120498</v>
+        <v>0.1344253579982953</v>
       </c>
       <c r="T6">
-        <v>0.1324200007120498</v>
+        <v>0.1344253579982953</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>28.187806</v>
       </c>
       <c r="I7">
-        <v>0.1369942497546098</v>
+        <v>0.1388778842960613</v>
       </c>
       <c r="J7">
-        <v>0.1369942497546098</v>
+        <v>0.1388778842960613</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>17.910552</v>
       </c>
       <c r="O7">
-        <v>0.01677823379880302</v>
+        <v>0.015995373883918</v>
       </c>
       <c r="P7">
-        <v>0.01677823379880302</v>
+        <v>0.015995373883918</v>
       </c>
       <c r="Q7">
         <v>56.09546279210132</v>
@@ -883,10 +883,10 @@
         <v>504.859165128912</v>
       </c>
       <c r="S7">
-        <v>0.002298521551474457</v>
+        <v>0.002221403683523004</v>
       </c>
       <c r="T7">
-        <v>0.002298521551474457</v>
+        <v>0.002221403683523005</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>28.187806</v>
       </c>
       <c r="I8">
-        <v>0.1369942497546098</v>
+        <v>0.1388778842960613</v>
       </c>
       <c r="J8">
-        <v>0.1369942497546098</v>
+        <v>0.1388778842960613</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.239611333333334</v>
+        <v>3.890485666666667</v>
       </c>
       <c r="N8">
-        <v>9.718834000000001</v>
+        <v>11.671457</v>
       </c>
       <c r="O8">
-        <v>0.009104402204005551</v>
+        <v>0.01042342628440887</v>
       </c>
       <c r="P8">
-        <v>0.00910440220400555</v>
+        <v>0.01042342628440887</v>
       </c>
       <c r="Q8">
-        <v>30.43917859313378</v>
+        <v>36.55475173926022</v>
       </c>
       <c r="R8">
-        <v>273.952607338204</v>
+        <v>328.992765653342</v>
       </c>
       <c r="S8">
-        <v>0.001247250749401956</v>
+        <v>0.00144758338949466</v>
       </c>
       <c r="T8">
-        <v>0.001247250749401956</v>
+        <v>0.00144758338949466</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>28.187806</v>
       </c>
       <c r="I9">
-        <v>0.1369942497546098</v>
+        <v>0.1388778842960613</v>
       </c>
       <c r="J9">
-        <v>0.1369942497546098</v>
+        <v>0.1388778842960613</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.671367333333334</v>
+        <v>2.105818666666667</v>
       </c>
       <c r="N9">
-        <v>8.014102000000001</v>
+        <v>6.317456</v>
       </c>
       <c r="O9">
-        <v>0.007507444608265281</v>
+        <v>0.005641929445569353</v>
       </c>
       <c r="P9">
-        <v>0.00750744460826528</v>
+        <v>0.005641929445569354</v>
       </c>
       <c r="Q9">
-        <v>25.09999471557911</v>
+        <v>19.78613601572622</v>
       </c>
       <c r="R9">
-        <v>225.899952440212</v>
+        <v>178.075224141536</v>
       </c>
       <c r="S9">
-        <v>0.001028476741683593</v>
+        <v>0.0007835392247483218</v>
       </c>
       <c r="T9">
-        <v>0.001028476741683593</v>
+        <v>0.000783539224748322</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.492645</v>
+        <v>12.29750866666667</v>
       </c>
       <c r="H10">
-        <v>19.477935</v>
+        <v>36.892526</v>
       </c>
       <c r="I10">
-        <v>0.09466380931151776</v>
+        <v>0.1817649787009828</v>
       </c>
       <c r="J10">
-        <v>0.09466380931151776</v>
+        <v>0.1817649787009828</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>343.9479473333333</v>
+        <v>361.2779286666667</v>
       </c>
       <c r="N10">
-        <v>1031.843842</v>
+        <v>1083.833786</v>
       </c>
       <c r="O10">
-        <v>0.9666099193889262</v>
+        <v>0.9679392703861037</v>
       </c>
       <c r="P10">
-        <v>0.966609919388926</v>
+        <v>0.9679392703861038</v>
       </c>
       <c r="Q10">
-        <v>2233.13192051403</v>
+        <v>4442.818458853716</v>
       </c>
       <c r="R10">
-        <v>20098.18728462627</v>
+        <v>39985.36612968345</v>
       </c>
       <c r="S10">
-        <v>0.09150297708765485</v>
+        <v>0.1759374608655749</v>
       </c>
       <c r="T10">
-        <v>0.09150297708765484</v>
+        <v>0.175937460865575</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.492645</v>
+        <v>12.29750866666667</v>
       </c>
       <c r="H11">
-        <v>19.477935</v>
+        <v>36.892526</v>
       </c>
       <c r="I11">
-        <v>0.09466380931151776</v>
+        <v>0.1817649787009828</v>
       </c>
       <c r="J11">
-        <v>0.09466380931151776</v>
+        <v>0.1817649787009828</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>17.910552</v>
       </c>
       <c r="O11">
-        <v>0.01677823379880302</v>
+        <v>0.015995373883918</v>
       </c>
       <c r="P11">
-        <v>0.01677823379880302</v>
+        <v>0.015995373883918</v>
       </c>
       <c r="Q11">
-        <v>38.76228529668</v>
+        <v>73.41838948159467</v>
       </c>
       <c r="R11">
-        <v>348.86056767012</v>
+        <v>660.765505334352</v>
       </c>
       <c r="S11">
-        <v>0.001588291524913952</v>
+        <v>0.002907398793324611</v>
       </c>
       <c r="T11">
-        <v>0.001588291524913952</v>
+        <v>0.002907398793324611</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.492645</v>
+        <v>12.29750866666667</v>
       </c>
       <c r="H12">
-        <v>19.477935</v>
+        <v>36.892526</v>
       </c>
       <c r="I12">
-        <v>0.09466380931151776</v>
+        <v>0.1817649787009828</v>
       </c>
       <c r="J12">
-        <v>0.09466380931151776</v>
+        <v>0.1817649787009828</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.239611333333334</v>
+        <v>3.890485666666667</v>
       </c>
       <c r="N12">
-        <v>9.718834000000001</v>
+        <v>11.671457</v>
       </c>
       <c r="O12">
-        <v>0.009104402204005551</v>
+        <v>0.01042342628440887</v>
       </c>
       <c r="P12">
-        <v>0.00910440220400555</v>
+        <v>0.01042342628440887</v>
       </c>
       <c r="Q12">
-        <v>21.03364632531001</v>
+        <v>47.84328120337578</v>
       </c>
       <c r="R12">
-        <v>189.30281692779</v>
+        <v>430.589530830382</v>
       </c>
       <c r="S12">
-        <v>0.0008618573941353436</v>
+        <v>0.001894613856576843</v>
       </c>
       <c r="T12">
-        <v>0.0008618573941353433</v>
+        <v>0.001894613856576843</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.492645</v>
+        <v>12.29750866666667</v>
       </c>
       <c r="H13">
-        <v>19.477935</v>
+        <v>36.892526</v>
       </c>
       <c r="I13">
-        <v>0.09466380931151776</v>
+        <v>0.1817649787009828</v>
       </c>
       <c r="J13">
-        <v>0.09466380931151776</v>
+        <v>0.1817649787009828</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.671367333333334</v>
+        <v>2.105818666666667</v>
       </c>
       <c r="N13">
-        <v>8.014102000000001</v>
+        <v>6.317456</v>
       </c>
       <c r="O13">
-        <v>0.007507444608265281</v>
+        <v>0.005641929445569353</v>
       </c>
       <c r="P13">
-        <v>0.00750744460826528</v>
+        <v>0.005641929445569354</v>
       </c>
       <c r="Q13">
-        <v>17.34423975993001</v>
+        <v>25.89632330376178</v>
       </c>
       <c r="R13">
-        <v>156.09815783937</v>
+        <v>233.066909733856</v>
       </c>
       <c r="S13">
-        <v>0.0007106833048136067</v>
+        <v>0.001025505185506361</v>
       </c>
       <c r="T13">
-        <v>0.0007106833048136067</v>
+        <v>0.001025505185506361</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.08161033333333333</v>
+        <v>0.2004796666666666</v>
       </c>
       <c r="H14">
-        <v>0.244831</v>
+        <v>0.6014389999999999</v>
       </c>
       <c r="I14">
-        <v>0.001189891797952309</v>
+        <v>0.002963216642442438</v>
       </c>
       <c r="J14">
-        <v>0.001189891797952308</v>
+        <v>0.002963216642442439</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>343.9479473333333</v>
+        <v>361.2779286666667</v>
       </c>
       <c r="N14">
-        <v>1031.843842</v>
+        <v>1083.833786</v>
       </c>
       <c r="O14">
-        <v>0.9666099193889262</v>
+        <v>0.9679392703861037</v>
       </c>
       <c r="P14">
-        <v>0.966609919388926</v>
+        <v>0.9679392703861038</v>
       </c>
       <c r="Q14">
-        <v>28.06970663118911</v>
+        <v>72.4288787131171</v>
       </c>
       <c r="R14">
-        <v>252.627359680702</v>
+        <v>651.859908418054</v>
       </c>
       <c r="S14">
-        <v>0.001150161214900225</v>
+        <v>0.002868213754881694</v>
       </c>
       <c r="T14">
-        <v>0.001150161214900225</v>
+        <v>0.002868213754881694</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.08161033333333333</v>
+        <v>0.2004796666666666</v>
       </c>
       <c r="H15">
-        <v>0.244831</v>
+        <v>0.6014389999999999</v>
       </c>
       <c r="I15">
-        <v>0.001189891797952309</v>
+        <v>0.002963216642442438</v>
       </c>
       <c r="J15">
-        <v>0.001189891797952308</v>
+        <v>0.002963216642442439</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>17.910552</v>
       </c>
       <c r="O15">
-        <v>0.01677823379880302</v>
+        <v>0.015995373883918</v>
       </c>
       <c r="P15">
-        <v>0.01677823379880302</v>
+        <v>0.015995373883918</v>
       </c>
       <c r="Q15">
-        <v>0.4872287063013332</v>
+        <v>1.196900498258666</v>
       </c>
       <c r="R15">
-        <v>4.385058356711999</v>
+        <v>10.772104484328</v>
       </c>
       <c r="S15">
-        <v>1.996428278132192E-05</v>
+        <v>4.739775809491495E-05</v>
       </c>
       <c r="T15">
-        <v>1.996428278132192E-05</v>
+        <v>4.739775809491496E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.08161033333333333</v>
+        <v>0.2004796666666666</v>
       </c>
       <c r="H16">
-        <v>0.244831</v>
+        <v>0.6014389999999999</v>
       </c>
       <c r="I16">
-        <v>0.001189891797952309</v>
+        <v>0.002963216642442438</v>
       </c>
       <c r="J16">
-        <v>0.001189891797952308</v>
+        <v>0.002963216642442439</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.239611333333334</v>
+        <v>3.890485666666667</v>
       </c>
       <c r="N16">
-        <v>9.718834000000001</v>
+        <v>11.671457</v>
       </c>
       <c r="O16">
-        <v>0.009104402204005551</v>
+        <v>0.01042342628440887</v>
       </c>
       <c r="P16">
-        <v>0.00910440220400555</v>
+        <v>0.01042342628440887</v>
       </c>
       <c r="Q16">
-        <v>0.2643857607837778</v>
+        <v>0.7799632696247777</v>
       </c>
       <c r="R16">
-        <v>2.379471847054</v>
+        <v>7.019669426623</v>
       </c>
       <c r="S16">
-        <v>1.083325350780513E-05</v>
+        <v>3.088687023723231E-05</v>
       </c>
       <c r="T16">
-        <v>1.083325350780512E-05</v>
+        <v>3.088687023723233E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.08161033333333333</v>
+        <v>0.2004796666666666</v>
       </c>
       <c r="H17">
-        <v>0.244831</v>
+        <v>0.6014389999999999</v>
       </c>
       <c r="I17">
-        <v>0.001189891797952309</v>
+        <v>0.002963216642442438</v>
       </c>
       <c r="J17">
-        <v>0.001189891797952308</v>
+        <v>0.002963216642442439</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.671367333333334</v>
+        <v>2.105818666666667</v>
       </c>
       <c r="N17">
-        <v>8.014102000000001</v>
+        <v>6.317456</v>
       </c>
       <c r="O17">
-        <v>0.007507444608265281</v>
+        <v>0.005641929445569353</v>
       </c>
       <c r="P17">
-        <v>0.00750744460826528</v>
+        <v>0.005641929445569354</v>
       </c>
       <c r="Q17">
-        <v>0.2180111785291111</v>
+        <v>0.4221738243537777</v>
       </c>
       <c r="R17">
-        <v>1.962100606762</v>
+        <v>3.799564419184</v>
       </c>
       <c r="S17">
-        <v>8.93304676295614E-06</v>
+        <v>1.671825922859714E-05</v>
       </c>
       <c r="T17">
-        <v>8.933046762956138E-06</v>
+        <v>1.671825922859715E-05</v>
       </c>
     </row>
   </sheetData>
